--- a/xlsx/企业经济学_intext.xlsx
+++ b/xlsx/企业经济学_intext.xlsx
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>管理學院</t>
+    <t>管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -533,25 +533,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_business_management</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -995,25 +995,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1151,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1223,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
